--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>906796.7761589515</v>
+        <v>913928.8980483055</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H2" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14.3780636550197</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.864908454253021</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>165.7173798661024</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,61 +908,61 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,25 +978,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.489476071205322</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>140.5786793831186</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>158.8413341243909</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,13 +1148,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7.692106705274854</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>18.26383100538854</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>86.00356532003913</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>185.7443714751566</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1610,25 +1610,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>130.2205386836649</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>107.2644082870342</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1841,67 +1841,67 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.583694061602047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>189.3473135058883</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>142.8009741436498</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.245357950761489</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>200.3360962888297</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>52.24924162573038</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>66.18592404179927</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,19 +2801,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2874,22 +2874,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>52.00379634267769</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>6.381457341452935</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,25 +3071,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>86.89515267636601</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>6.808312076779333</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3284,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.9723670217282</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>168.4777030685013</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.9993436125</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>90.08131101346704</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3740,7 +3740,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>205.5178444382804</v>
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>81.44781579947814</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.69006202085835</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4334,10 +4334,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4349,31 +4349,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.5646958002688</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="C3" t="n">
-        <v>130.5646958002688</v>
+        <v>325.3674248745549</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5646958002688</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4434,25 +4434,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>513.308066045118</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V3" t="n">
-        <v>305.7142837842288</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W3" t="n">
-        <v>298.7800328203368</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X3" t="n">
-        <v>298.7800328203368</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.7800328203368</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="4">
@@ -4531,7 +4531,7 @@
         <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.6989813239244</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="C5" t="n">
-        <v>443.6989813239244</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4577,7 +4577,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4601,16 +4601,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="W5" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="X5" t="n">
-        <v>443.6989813239244</v>
-      </c>
       <c r="Y5" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.2635924286101</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="C6" t="n">
-        <v>129.8105631474831</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="D6" t="n">
-        <v>129.8105631474831</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="E6" t="n">
-        <v>129.8105631474831</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="F6" t="n">
-        <v>129.8105631474831</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,19 +4650,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>163.1080096386462</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4671,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X6" t="n">
-        <v>680.0727117095674</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y6" t="n">
-        <v>472.4789294486781</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="7">
@@ -4741,19 +4741,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
         <v>16.44142755506243</v>
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>258.5080104335871</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>258.5080104335871</v>
+        <v>454.031803447393</v>
       </c>
       <c r="F8" t="n">
-        <v>251.5625096843836</v>
+        <v>447.0863026981896</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4838,16 +4838,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>814.3015730003187</v>
+        <v>529.0361896098191</v>
       </c>
       <c r="C9" t="n">
-        <v>814.3015730003187</v>
+        <v>529.0361896098191</v>
       </c>
       <c r="D9" t="n">
-        <v>665.3671633390675</v>
+        <v>380.1017799485678</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G9" t="n">
         <v>220.8643249431123</v>
@@ -4890,13 +4890,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>814.3015730003187</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>814.3015730003187</v>
+        <v>529.0361896098191</v>
       </c>
       <c r="U9" t="n">
-        <v>814.3015730003187</v>
+        <v>529.0361896098191</v>
       </c>
       <c r="V9" t="n">
-        <v>814.3015730003187</v>
+        <v>529.0361896098191</v>
       </c>
       <c r="W9" t="n">
-        <v>814.3015730003187</v>
+        <v>529.0361896098191</v>
       </c>
       <c r="X9" t="n">
-        <v>814.3015730003187</v>
+        <v>529.0361896098191</v>
       </c>
       <c r="Y9" t="n">
-        <v>814.3015730003187</v>
+        <v>529.0361896098191</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4981,31 +4981,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="C11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="D11" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="E11" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5045,46 +5045,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191.6485894889752</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5121,16 +5121,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>735.1990895510619</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>561.7817450017308</v>
       </c>
       <c r="T12" t="n">
-        <v>359.8639265090432</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="U12" t="n">
-        <v>359.8639265090432</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="V12" t="n">
-        <v>359.8639265090432</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="W12" t="n">
-        <v>359.8639265090432</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X12" t="n">
-        <v>359.8639265090432</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.8639265090432</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="13">
@@ -5258,22 +5258,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="E14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="F14" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>406.8838132313431</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>199.2900309704538</v>
       </c>
-      <c r="G14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,7 +5285,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>589.3659506457398</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>414.9129213646127</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>787.171420448546</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>612.718391167419</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>463.7839815061678</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>304.5465265007123</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5601,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>955.386757468614</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5707,7 +5707,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="22">
@@ -5932,19 +5932,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>203.827050448935</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C24" t="n">
-        <v>29.37402116780802</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D24" t="n">
-        <v>29.37402116780802</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E24" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>29.37402116780802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6075,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6105,13 +6105,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>619.4388494194218</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>411.587349213889</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.827050448935</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6175,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="C26" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="D26" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="E26" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="F26" t="n">
         <v>274.7999090013961</v>
       </c>
-      <c r="C26" t="n">
+      <c r="G26" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="D26" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="E26" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="F26" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="G26" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
         <v>31.35113235729608</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y26" t="n">
         <v>761.6974622895962</v>
-      </c>
-      <c r="U26" t="n">
-        <v>518.2486856454962</v>
-      </c>
-      <c r="V26" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="W26" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="X26" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>231.2956098588302</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>72.05815485337473</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>72.05815485337473</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>72.05815485337473</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6309,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>796.0331573344317</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>560.8810491026891</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>317.4322724585891</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>109.5807722530562</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.5807722530562</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.7808214123601</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C30" t="n">
-        <v>116.7808214123601</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D30" t="n">
-        <v>116.7808214123601</v>
+        <v>211.2951883952089</v>
       </c>
       <c r="E30" t="n">
-        <v>116.7808214123601</v>
+        <v>211.2951883952089</v>
       </c>
       <c r="F30" t="n">
-        <v>116.7808214123601</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>116.7808214123601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6579,13 @@
         <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>116.7808214123601</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>116.7808214123601</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y30" t="n">
-        <v>116.7808214123601</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6655,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420.237879300003</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C33" t="n">
-        <v>245.784850018876</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D33" t="n">
-        <v>245.784850018876</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E33" t="n">
-        <v>245.784850018876</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>682.5931986083531</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>682.5931986083531</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>682.5931986083531</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>682.5931986083531</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>474.7416984028202</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6880,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6980,7 +6980,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>295.0807182769926</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>148.5461603038775</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X36" t="n">
-        <v>550.428880817545</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y36" t="n">
-        <v>342.668582052591</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7111,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>284.725395637266</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X39" t="n">
-        <v>554.0190606638694</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y39" t="n">
-        <v>346.2587618989155</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,10 +7418,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7433,28 +7433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W41" t="n">
-        <v>463.0946480769296</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D42" t="n">
-        <v>257.9494035700918</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E42" t="n">
-        <v>98.71194856463632</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7491,16 +7491,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
         <v>752.6768192397923</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7585,34 +7585,34 @@
         <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y43" t="n">
-        <v>819.3224477176605</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7661,37 +7661,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7749,22 +7749,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>807.2329312674061</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>633.815586718075</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>431.628992076841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U45" t="n">
-        <v>224.0352098159517</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W45" t="n">
-        <v>224.0352098159517</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X45" t="n">
         <v>16.44142755506243</v>
@@ -7982,13 +7982,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8225,10 +8225,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8538,16 +8538,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,10 +8702,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>265.6729592778915</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,7 +8781,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8933,10 +8933,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9021,10 +9021,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,7 +9957,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,7 +9966,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11151,7 +11151,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>269.7148239424616</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11309,10 +11309,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,19 +11379,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,25 +23258,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F11" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.154268832604</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>14.42035721966496</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23498,25 +23498,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>36.31264496620247</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.38067216836671</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,7 +23631,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,31 +23808,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>197.0990017157023</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23947,10 +23947,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,16 +23969,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>329.5048015845142</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24051,7 +24051,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>16.42567169758914</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>360.7466147015374</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,16 +24254,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>14.84410631175118</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24303,10 +24303,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15127490065359</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24345,10 +24345,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>128.1631918897635</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24385,7 +24385,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24494,13 +24494,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>185.9018423672239</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,10 +24537,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>59.98620261076608</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>159.7554580391756</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24619,10 +24619,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,10 +24731,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24762,22 +24762,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>93.06541605070619</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.8539868950435</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24819,7 +24819,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24895,10 +24895,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,25 +24959,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>58.17405971701787</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>193.3564166180423</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25059,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,10 +25160,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25172,7 +25172,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,19 +25233,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>9.371150141482474</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,16 +25290,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>37.29528213497613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25439,25 +25439,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.53384003736738</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25485,7 +25485,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>22.15413322302942</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25533,7 +25533,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,13 +25673,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>54.02502153750649</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>338.5801012383814</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>180.7200942177732</v>
@@ -25710,13 +25710,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>63.62139659390574</v>
+        <v>64.20692916478961</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25770,7 +25770,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25804,13 +25804,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>140.6136200195525</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
         <v>86.16204325169439</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="45">
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>85.46777213178478</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>85.7229128969819</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432315.4733068235</v>
+        <v>432315.4733068236</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432315.4733068235</v>
+        <v>432315.4733068236</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432315.4733068234</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432315.4733068235</v>
+        <v>432315.4733068236</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432315.4733068235</v>
+        <v>432315.4733068236</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="14">
@@ -26329,13 +26329,13 @@
         <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="I2" t="n">
         <v>191084.7734110322</v>
       </c>
       <c r="J2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="K2" t="n">
         <v>191084.7734110322</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003451</v>
       </c>
       <c r="C4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="D4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27883.152600357</v>
+        <v>28716.00914808054</v>
       </c>
       <c r="C6" t="n">
-        <v>96756.90918204692</v>
+        <v>97589.76572977036</v>
       </c>
       <c r="D6" t="n">
-        <v>96756.9091820468</v>
+        <v>97589.7657297703</v>
       </c>
       <c r="E6" t="n">
-        <v>128244.6537677035</v>
+        <v>129077.5103154269</v>
       </c>
       <c r="F6" t="n">
-        <v>128244.6537677035</v>
+        <v>129077.5103154269</v>
       </c>
       <c r="G6" t="n">
-        <v>123806.807413188</v>
+        <v>124684.6363172074</v>
       </c>
       <c r="H6" t="n">
-        <v>133535.8503873551</v>
+        <v>134413.6792913744</v>
       </c>
       <c r="I6" t="n">
-        <v>133535.8503873551</v>
+        <v>134413.6792913744</v>
       </c>
       <c r="J6" t="n">
-        <v>79763.3394971457</v>
+        <v>80641.16840116499</v>
       </c>
       <c r="K6" t="n">
-        <v>133535.8503873551</v>
+        <v>134413.6792913744</v>
       </c>
       <c r="L6" t="n">
-        <v>133535.8503873551</v>
+        <v>134413.6792913745</v>
       </c>
       <c r="M6" t="n">
-        <v>133535.8503873551</v>
+        <v>134413.6792913744</v>
       </c>
       <c r="N6" t="n">
-        <v>133535.8503873551</v>
+        <v>134413.6792913745</v>
       </c>
       <c r="O6" t="n">
-        <v>128244.6537677034</v>
+        <v>129077.5103154269</v>
       </c>
       <c r="P6" t="n">
-        <v>128244.6537677035</v>
+        <v>129077.5103154269</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,16 +27391,16 @@
         <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H2" t="n">
-        <v>330.2637912448367</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>158.330435333296</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.8300747066666</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.36645333167579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>217.0164617973782</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27628,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>200.6602726518442</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27698,25 +27698,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>143.9555894934334</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>65.19430582035884</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>207.7909968509045</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>223.0890359478709</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27941,10 +27941,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.46572744736828</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>181.9008976894331</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34702,13 +34702,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34945,10 +34945,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,16 +35258,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35413,7 +35413,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,10 +35422,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,7 +35501,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N14" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N14" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35741,10 +35741,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,7 +36686,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37871,7 +37871,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>127.1185794980172</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>913928.8980483055</v>
+        <v>914713.0439863342</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.3780636550197</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>73.39119756194191</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>165.7173798661024</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.489476071205322</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>77.57648382221382</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>158.8413341243909</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>162.1947822849135</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>18.26383100538854</v>
+        <v>159.0512204786342</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>205.5178444382804</v>
@@ -1415,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>37.36227613112857</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.00356532003913</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130.2205386836649</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>75.98895534506889</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1736,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,64 +2083,64 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>83.3106286157618</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>189.3473135058883</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>142.8009741436498</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2518,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,68 +2554,68 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>52.24924162573038</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>52.00379634267769</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>49.23175083062949</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>66.59358938417571</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>6.808312076779333</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3286,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.9723670217282</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>36.43923176655766</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,43 +3435,43 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3545,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3597,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>90.08131101346704</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C41" t="n">
         <v>205.5178444382804</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3825,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>80.86228322859426</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>83.07707764447514</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3919,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4119,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>120.0500723064956</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F2" t="n">
-        <v>199.2900309704538</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4340,7 +4342,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4367,13 +4369,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8907214957869</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C3" t="n">
-        <v>325.3674248745549</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D3" t="n">
-        <v>176.4330152133036</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4413,46 +4415,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>747.9388549632813</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>545.7522603220474</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>338.1584780611581</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="X3" t="n">
-        <v>547.4845037566762</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.8907214957869</v>
+        <v>130.5646958002688</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4522,16 +4524,16 @@
         <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>239.4925204373003</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
         <v>239.4925204373003</v>
@@ -4577,7 +4579,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4601,10 +4603,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
         <v>614.4775954922324</v>
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480.4386961837225</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="C6" t="n">
-        <v>305.9856669025954</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="D6" t="n">
-        <v>302.4609435983476</v>
+        <v>266.7326443561471</v>
       </c>
       <c r="E6" t="n">
-        <v>302.4609435983476</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>155.9263856252326</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4653,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>648.6540332037905</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>648.6540332037905</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>648.6540332037905</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X6" t="n">
-        <v>648.6540332037905</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y6" t="n">
-        <v>648.6540332037905</v>
+        <v>434.9479813762152</v>
       </c>
     </row>
     <row r="7">
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4787,31 +4789,31 @@
         <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>454.031803447393</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>447.0863026981896</v>
+        <v>399.9383124821396</v>
       </c>
       <c r="G8" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4835,7 +4837,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
         <v>614.4775954922324</v>
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>529.0361896098191</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="C9" t="n">
-        <v>529.0361896098191</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="D9" t="n">
-        <v>380.1017799485678</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="E9" t="n">
-        <v>220.8643249431123</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="F9" t="n">
-        <v>220.8643249431123</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
         <v>107.4951893506917</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>529.0361896098191</v>
+        <v>661.4135792898547</v>
       </c>
       <c r="U9" t="n">
-        <v>529.0361896098191</v>
+        <v>453.8197970289655</v>
       </c>
       <c r="V9" t="n">
-        <v>529.0361896098191</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="W9" t="n">
-        <v>529.0361896098191</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="X9" t="n">
-        <v>529.0361896098191</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="Y9" t="n">
-        <v>529.0361896098191</v>
+        <v>246.2260147680761</v>
       </c>
     </row>
     <row r="10">
@@ -4978,25 +4980,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
         <v>16.44142755506243</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F11" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H11" t="n">
         <v>224.0352098159517</v>
@@ -5045,7 +5047,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5063,28 +5065,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.5951503604969</v>
+        <v>784.3317048933958</v>
       </c>
       <c r="C12" t="n">
-        <v>359.5951503604969</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="D12" t="n">
-        <v>359.5951503604969</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E12" t="n">
-        <v>359.5951503604969</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,46 +5126,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>735.1990895510619</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>561.7817450017308</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5273,7 +5275,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>589.3659506457398</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="C15" t="n">
-        <v>414.9129213646127</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="D15" t="n">
-        <v>265.9785117033614</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="E15" t="n">
-        <v>106.7410566979059</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="F15" t="n">
-        <v>106.7410566979059</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7410566979059</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5361,19 +5363,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>211.6833797714288</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5384,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V15" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W15" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X15" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y15" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5710,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.9696854242497</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="C21" t="n">
-        <v>168.9696854242497</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="H21" t="n">
         <v>20.03527576299844</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X21" t="n">
-        <v>168.9696854242497</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.9696854242497</v>
+        <v>104.1874258799295</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C24" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>163.5245513361216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="25">
@@ -6166,13 +6168,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y26" t="n">
-        <v>761.6974622895962</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.2300195200815</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C27" t="n">
-        <v>380.2300195200815</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D27" t="n">
-        <v>231.2956098588302</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E27" t="n">
-        <v>72.05815485337473</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F27" t="n">
-        <v>72.05815485337473</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G27" t="n">
-        <v>72.05815485337473</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.4453565401495</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C30" t="n">
-        <v>360.2295980564601</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D30" t="n">
-        <v>211.2951883952089</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E30" t="n">
-        <v>211.2951883952089</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>474.7416984028202</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C33" t="n">
-        <v>474.7416984028202</v>
+        <v>245.784850018876</v>
       </c>
       <c r="D33" t="n">
-        <v>325.807288741569</v>
+        <v>245.784850018876</v>
       </c>
       <c r="E33" t="n">
-        <v>166.5698337361135</v>
+        <v>86.54739501342053</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6791,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>682.5931986083531</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>682.5931986083531</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>682.5931986083531</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>682.5931986083531</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>474.7416984028202</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>474.7416984028202</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>454.3181732824481</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C36" t="n">
-        <v>454.3181732824481</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D36" t="n">
-        <v>454.3181732824481</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>295.0807182769926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>148.5461603038775</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>454.3181732824481</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="X36" t="n">
-        <v>454.3181732824481</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y36" t="n">
-        <v>454.3181732824481</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.725395637266</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.272366356139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X39" t="n">
-        <v>660.701031422288</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y39" t="n">
-        <v>452.9407326573341</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.12050152333947</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="C42" t="n">
-        <v>98.12050152333947</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="D42" t="n">
-        <v>98.12050152333947</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="E42" t="n">
-        <v>98.12050152333947</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7512,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>305.7142837842288</v>
+        <v>530.561355447308</v>
       </c>
       <c r="Y42" t="n">
-        <v>98.12050152333947</v>
+        <v>322.9675731864187</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7585,34 +7587,34 @@
         <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,16 +7651,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
         <v>822.0713777531216</v>
@@ -7691,7 +7693,7 @@
         <v>396.792197863116</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="45">
@@ -7749,22 +7751,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T45" t="n">
-        <v>345.2979091154422</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U45" t="n">
-        <v>137.7041268545529</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V45" t="n">
-        <v>137.7041268545529</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>137.7041268545529</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
         <v>16.44142755506243</v>
@@ -7988,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,10 +8227,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8693,10 +8695,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>209.1446748894994</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O18" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,10 +9491,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9971,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,10 +10196,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10679,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,7 +11311,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -23264,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>210.9009519055692</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>4.958045132125505</v>
@@ -23303,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>129.1709075187388</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.154268832604</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23513,10 +23515,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.31264496620247</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>81.65612511033206</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>125.4575720412377</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,7 +24065,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>28.92481562073466</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24099,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>16.42567169758914</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>61.53338767417517</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>14.84410631175118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,10 +24347,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24406,16 +24408,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,22 +24451,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,10 +24539,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>59.98620261076608</v>
+        <v>66.21791707219469</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>93.06541605070619</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.11176633258114</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>129.0278429749881</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>78.47562300920816</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>193.3564166180423</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.0665496686753</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25172,7 +25174,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>9.371150141482474</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>215.2557513943619</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>354.079835614828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25433,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25485,7 +25487,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>22.15413322302942</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>67.97011574095609</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C41" t="n">
         <v>159.7550473327271</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>54.02502153750649</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25713,10 +25715,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>64.20692916478961</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25770,7 +25772,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>122.6959075590023</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25807,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26007,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>85.7229128969819</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432315.4733068235</v>
+        <v>432315.4733068236</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068234</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432315.4733068235</v>
+        <v>432315.4733068234</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432315.4733068235</v>
+        <v>432315.4733068236</v>
       </c>
     </row>
     <row r="14">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
@@ -26326,34 +26328,34 @@
         <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="H2" t="n">
         <v>191084.7734110322</v>
       </c>
       <c r="I2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
         <v>191084.7734110322</v>
       </c>
       <c r="K2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="L2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="N2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="N2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="P2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
     </row>
     <row r="3">
@@ -26430,7 +26432,7 @@
         <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="H4" t="n">
         <v>42017.42535589615</v>
@@ -26445,10 +26447,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
         <v>42017.42535589615</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28716.00914808054</v>
+        <v>28716.00914808035</v>
       </c>
       <c r="C6" t="n">
-        <v>97589.76572977036</v>
+        <v>97589.76572977044</v>
       </c>
       <c r="D6" t="n">
-        <v>97589.7657297703</v>
+        <v>97589.76572977038</v>
       </c>
       <c r="E6" t="n">
         <v>129077.5103154269</v>
@@ -26534,34 +26536,34 @@
         <v>129077.5103154269</v>
       </c>
       <c r="G6" t="n">
-        <v>124684.6363172074</v>
+        <v>124684.6363172073</v>
       </c>
       <c r="H6" t="n">
         <v>134413.6792913744</v>
       </c>
       <c r="I6" t="n">
-        <v>134413.6792913744</v>
+        <v>134413.6792913745</v>
       </c>
       <c r="J6" t="n">
         <v>80641.16840116499</v>
       </c>
       <c r="K6" t="n">
-        <v>134413.6792913744</v>
+        <v>134413.6792913745</v>
       </c>
       <c r="L6" t="n">
         <v>134413.6792913745</v>
       </c>
       <c r="M6" t="n">
+        <v>134413.6792913745</v>
+      </c>
+      <c r="N6" t="n">
         <v>134413.6792913744</v>
       </c>
-      <c r="N6" t="n">
-        <v>134413.6792913745</v>
-      </c>
       <c r="O6" t="n">
-        <v>129077.5103154269</v>
+        <v>129077.5103154268</v>
       </c>
       <c r="P6" t="n">
-        <v>129077.5103154269</v>
+        <v>129077.5103154268</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27393,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>200.6602726518442</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>158.330435333296</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>98.29197354189591</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.11912650183328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>217.0164617973782</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>199.5555119049052</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27673,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -27695,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>143.9555894934334</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>128.1062119550905</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27813,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>223.0890359478709</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>253.1079552302216</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27935,19 +27937,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>181.9008976894331</v>
+        <v>41.1135082161874</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28050,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34708,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35413,10 +35415,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,10 +36211,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36691,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37397,7 +37399,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38029,7 +38031,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>914713.0439863342</v>
+        <v>845052.7083118065</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.275125686688479</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>73.39119756194191</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>165.7173798661024</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.0247444220177</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>205.5178444382804</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>77.57648382221382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>159.0801288120801</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>162.1947822849135</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>159.0512204786342</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>15.5915088619814</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.36227613112857</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1624,40 +1624,40 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>75.98895534506889</v>
+        <v>24.9778700346115</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1861,58 +1861,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1982,16 +1982,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>109.8161808413049</v>
       </c>
     </row>
     <row r="19">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2159,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>83.3106286157618</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>45.76937707216953</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2244,58 +2244,58 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2380,7 +2380,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>111.1751113141406</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>46.01752716430177</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>213.820555144111</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2730,52 +2730,52 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>145.5147652547677</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>49.23175083062949</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>66.59358938417571</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>43.72911805977611</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>116.6930783966232</v>
       </c>
       <c r="W36" t="n">
-        <v>36.43923176655766</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>164.8304714084692</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>34.584530432386</v>
       </c>
     </row>
     <row r="40">
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
     </row>
     <row r="42">
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>57.20971026027906</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>83.07707764447514</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>205.5178444382804</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C2" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D2" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E2" t="n">
-        <v>443.6989813239244</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F2" t="n">
+        <v>251.5625096843836</v>
+      </c>
+      <c r="G2" t="n">
         <v>236.1051990630351</v>
       </c>
-      <c r="G2" t="n">
-        <v>28.51141680214578</v>
-      </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
         <v>28.51141680214578</v>
@@ -4342,7 +4342,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.5646958002688</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C3" t="n">
-        <v>130.5646958002688</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="D3" t="n">
-        <v>130.5646958002688</v>
+        <v>291.0901565498541</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>131.8527015443986</v>
       </c>
       <c r="F3" t="n">
         <v>130.5646958002688</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>747.9388549632813</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>545.7522603220474</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>338.1584780611581</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>130.5646958002688</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>130.5646958002688</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X3" t="n">
-        <v>130.5646958002688</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y3" t="n">
-        <v>130.5646958002688</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C5" t="n">
-        <v>239.4925204373003</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D5" t="n">
-        <v>239.4925204373003</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E5" t="n">
-        <v>239.4925204373003</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F5" t="n">
-        <v>31.89873817641097</v>
+        <v>446.0575319594991</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>430.6002213381506</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4579,40 +4579,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266.7326443561471</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="C6" t="n">
-        <v>266.7326443561471</v>
+        <v>136.6684421227571</v>
       </c>
       <c r="D6" t="n">
-        <v>266.7326443561471</v>
+        <v>136.6684421227571</v>
       </c>
       <c r="E6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4676,22 +4676,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>513.308066045118</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W6" t="n">
-        <v>513.308066045118</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X6" t="n">
-        <v>513.308066045118</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y6" t="n">
-        <v>434.9479813762152</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F8" t="n">
-        <v>399.9383124821396</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G8" t="n">
         <v>236.1051990630351</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>246.2260147680761</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="C9" t="n">
-        <v>246.2260147680761</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="D9" t="n">
-        <v>246.2260147680761</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="E9" t="n">
-        <v>246.2260147680761</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F9" t="n">
-        <v>246.2260147680761</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4895,7 +4895,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O9" t="n">
         <v>752.6768192397923</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>661.4135792898547</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U9" t="n">
-        <v>453.8197970289655</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V9" t="n">
-        <v>246.2260147680761</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W9" t="n">
-        <v>246.2260147680761</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X9" t="n">
-        <v>246.2260147680761</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y9" t="n">
-        <v>246.2260147680761</v>
+        <v>324.1417226453007</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="D11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5044,19 +5044,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5068,25 +5068,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>784.3317048933958</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C12" t="n">
-        <v>609.8786756122688</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D12" t="n">
-        <v>460.9442659510175</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="E12" t="n">
-        <v>301.706810945562</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="F12" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
         <v>16.44142755506243</v>
@@ -5123,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>345.2979091154422</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="C15" t="n">
-        <v>345.2979091154422</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="D15" t="n">
-        <v>345.2979091154422</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="E15" t="n">
-        <v>268.5413885648676</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F15" t="n">
-        <v>268.5413885648676</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G15" t="n">
-        <v>129.8105631474831</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>345.2979091154422</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V15" t="n">
-        <v>345.2979091154422</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W15" t="n">
-        <v>345.2979091154422</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X15" t="n">
-        <v>345.2979091154422</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y15" t="n">
-        <v>345.2979091154422</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5472,16 +5472,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5606,13 +5606,13 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="19">
@@ -5703,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.1874258799295</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C21" t="n">
-        <v>104.1874258799295</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D21" t="n">
-        <v>104.1874258799295</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E21" t="n">
-        <v>104.1874258799295</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>104.1874258799295</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>104.1874258799295</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>555.4877027295624</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="W21" t="n">
-        <v>312.0389260854624</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="X21" t="n">
-        <v>104.1874258799295</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="Y21" t="n">
-        <v>104.1874258799295</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5943,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6071,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W24" t="n">
-        <v>547.1910343172051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>339.3395341116723</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6168,25 +6168,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>251.810259228364</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C26" t="n">
-        <v>251.810259228364</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D26" t="n">
-        <v>251.810259228364</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>495.259035872464</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>251.810259228364</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W26" t="n">
-        <v>251.810259228364</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X26" t="n">
-        <v>251.810259228364</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y26" t="n">
-        <v>251.810259228364</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156.0631229240681</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C27" t="n">
-        <v>156.0631229240681</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>156.0631229240681</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0631229240681</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>156.0631229240681</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6314,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>748.076796779211</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>748.076796779211</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>748.076796779211</v>
       </c>
       <c r="X27" t="n">
-        <v>156.0631229240681</v>
+        <v>540.2252965736782</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.0631229240681</v>
+        <v>332.4649978087242</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.4632136343998</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C30" t="n">
-        <v>69.01018435327282</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D30" t="n">
-        <v>69.01018435327282</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>69.01018435327282</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>69.01018435327282</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>619.4388494194218</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.6785506544679</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="31">
@@ -6660,7 +6660,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>420.237879300003</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C33" t="n">
-        <v>245.784850018876</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>245.784850018876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>86.54739501342053</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6818,13 +6818,13 @@
         <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>544.2823899970649</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="34">
@@ -6888,7 +6888,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>927.2498506959315</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>719.3983504903987</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>511.6380517254448</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7207,19 +7207,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>193.7341723913397</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>193.7341723913397</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X39" t="n">
-        <v>193.7341723913397</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>417.9156620931329</v>
       </c>
     </row>
     <row r="40">
@@ -7356,22 +7356,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7390,16 +7390,16 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7414,49 +7414,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>322.9675731864187</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C42" t="n">
-        <v>322.9675731864187</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="D42" t="n">
-        <v>322.9675731864187</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>163.7301181809632</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X42" t="n">
-        <v>530.561355447308</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y42" t="n">
-        <v>322.9675731864187</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7730,40 +7730,40 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>807.2329312674061</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>633.815586718075</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="U45" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="V45" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U45" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V45" t="n">
-        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
         <v>224.0352098159517</v>
@@ -7830,7 +7830,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
         <v>16.44142755506243</v>
@@ -7990,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9254,7 +9254,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,10 +10913,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>129.1709075187388</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>135.7322661159843</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23387,22 +23387,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23512,10 +23512,10 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23582,10 +23582,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>81.65612511033206</v>
+        <v>132.6672104207894</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23749,10 +23749,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>95.86651493599942</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>28.92481562073466</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,13 +24107,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>187.0312100772557</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24268,7 +24268,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>61.53338767417517</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24335,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>151.7265451152921</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>66.21791707219469</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>12.12082693686386</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>129.0278429749881</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>21.01841839509962</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>88.11176633258114</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24931,7 +24931,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24976,7 +24976,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24998,16 +24998,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>78.47562300920816</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25058,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>207.9658651011435</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25128,10 +25128,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="W36" t="n">
-        <v>215.2557513943619</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25447,19 +25447,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>67.97011574095609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>171.0981653449184</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>365.0776384305107</v>
       </c>
     </row>
     <row r="42">
@@ -25712,13 +25712,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>90.2353553043597</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25772,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>122.6959075590023</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>3.502225147964936</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>318.0899692773253</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>85.46777213178478</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
@@ -26070,10 +26070,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410424.9396060534</v>
+        <v>410424.9396060535</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432315.4733068234</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432315.4733068236</v>
+        <v>432315.4733068235</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410424.9396060536</v>
+        <v>410424.9396060534</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
       <c r="G2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="H2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="I2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="K2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191084.7734110323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>191084.7734110322</v>
-      </c>
-      <c r="K2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="L2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="N2" t="n">
         <v>191084.7734110323</v>
-      </c>
-      <c r="N2" t="n">
-        <v>191084.7734110322</v>
       </c>
       <c r="O2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="P2" t="n">
-        <v>181421.2881101713</v>
+        <v>181421.2881101714</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328386.1670003451</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="C4" t="n">
         <v>328386.1670003452</v>
@@ -26432,7 +26432,7 @@
         <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
         <v>42017.42535589615</v>
@@ -26450,7 +26450,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
         <v>42017.42535589615</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28716.00914808035</v>
+        <v>28716.00914808052</v>
       </c>
       <c r="C6" t="n">
-        <v>97589.76572977044</v>
+        <v>97589.76572977027</v>
       </c>
       <c r="D6" t="n">
-        <v>97589.76572977038</v>
+        <v>97589.76572977021</v>
       </c>
       <c r="E6" t="n">
-        <v>129077.5103154269</v>
+        <v>116439.3481605664</v>
       </c>
       <c r="F6" t="n">
-        <v>129077.5103154269</v>
+        <v>116439.3481605663</v>
       </c>
       <c r="G6" t="n">
-        <v>124684.6363172073</v>
+        <v>112466.6256971669</v>
       </c>
       <c r="H6" t="n">
-        <v>134413.6792913744</v>
+        <v>122195.668671334</v>
       </c>
       <c r="I6" t="n">
-        <v>134413.6792913745</v>
+        <v>122195.668671334</v>
       </c>
       <c r="J6" t="n">
-        <v>80641.16840116499</v>
+        <v>68423.15778112455</v>
       </c>
       <c r="K6" t="n">
-        <v>134413.6792913745</v>
+        <v>122195.668671334</v>
       </c>
       <c r="L6" t="n">
-        <v>134413.6792913745</v>
+        <v>122195.668671334</v>
       </c>
       <c r="M6" t="n">
-        <v>134413.6792913745</v>
+        <v>122195.6686713339</v>
       </c>
       <c r="N6" t="n">
-        <v>134413.6792913744</v>
+        <v>122195.668671334</v>
       </c>
       <c r="O6" t="n">
-        <v>129077.5103154268</v>
+        <v>116439.3481605664</v>
       </c>
       <c r="P6" t="n">
-        <v>129077.5103154268</v>
+        <v>116439.3481605664</v>
       </c>
     </row>
   </sheetData>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>189.3802980198975</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>200.6602726518442</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>143.7940867066954</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27508,16 +27508,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>98.29197354189591</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,13 +27590,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>117.0281136687964</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>143.9416082994493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>199.5555119049052</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>146.9247300634028</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.62033603338321</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,10 +27715,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>20.42353764269441</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>128.1062119550905</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>247.7959169296313</v>
       </c>
       <c r="G8" t="n">
-        <v>253.1079552302216</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27909,10 +27909,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27952,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1135082161874</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>190.091186915323</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5814812455281</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34710,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35664,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35974,7 +35974,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,10 +37633,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37794,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
